--- a/СКТП и КУ сводка по ГНКТ.xlsx
+++ b/СКТП и КУ сводка по ГНКТ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sauron\Desktop\СВОДКИ_СКТП\Декабрь\BACKUP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\SANDBOX\SAURON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C60B9-0BBC-4DB6-994C-2FD841A644FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60668C7-93DF-4A7B-ABB0-2F64E2B70F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="854" firstSheet="44" activeTab="49" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="854" firstSheet="44" activeTab="49" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01.12.2023 06.00" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
   <externalReferences>
     <externalReference r:id="rId51"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -3534,23 +3534,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5480,9 +5480,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="ГНКТ"/>
-      <sheetName val="ГРП"/>
-      <sheetName val="В работе"/>
+      <sheetName val="SAURON"/>
       <sheetName val="Переезды"/>
     </sheetNames>
     <definedNames>
@@ -5513,8 +5511,6 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5812,22 +5808,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -5865,28 +5861,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -5896,9 +5892,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -6620,6 +6616,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -6630,12 +6632,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
@@ -6676,22 +6672,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -6729,28 +6725,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -6760,9 +6756,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -7480,6 +7476,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -7490,12 +7492,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0900-000000000000}"/>
@@ -7536,22 +7532,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -7589,28 +7585,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -7620,9 +7616,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -8338,6 +8334,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -8348,12 +8350,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0A00-000000000000}"/>
@@ -8394,22 +8390,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -8447,28 +8443,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -8478,9 +8474,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -9190,6 +9186,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -9200,12 +9202,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0B00-000000000000}"/>
@@ -9246,22 +9242,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -9299,28 +9295,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -9330,9 +9326,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -10044,6 +10040,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -10054,12 +10056,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0C00-000000000000}"/>
@@ -10100,22 +10096,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -10153,28 +10149,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -10184,9 +10180,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -10894,6 +10890,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -10904,12 +10906,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0D00-000000000000}"/>
@@ -10950,22 +10946,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -11003,28 +10999,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -11034,9 +11030,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -11742,6 +11738,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -11752,12 +11754,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0E00-000000000000}"/>
@@ -11798,22 +11794,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -11851,28 +11847,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -11882,9 +11878,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -12594,6 +12590,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -12604,12 +12606,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0F00-000000000000}"/>
@@ -12650,22 +12646,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -12703,28 +12699,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -12734,9 +12730,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -13442,6 +13438,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -13452,12 +13454,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1000-000000000000}"/>
@@ -13498,22 +13494,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -13551,28 +13547,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -13582,9 +13578,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -14290,6 +14286,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -14300,12 +14302,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1100-000000000000}"/>
@@ -14346,22 +14342,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -14399,28 +14395,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -14430,9 +14426,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -15142,6 +15138,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -15152,12 +15154,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1200-000000000000}"/>
@@ -15198,22 +15194,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -15251,28 +15247,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -15282,9 +15278,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -16002,6 +15998,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -16012,12 +16014,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
@@ -16058,22 +16054,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -16111,28 +16107,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -16142,9 +16138,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -16856,6 +16852,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -16866,12 +16868,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1300-000000000000}"/>
@@ -16912,22 +16908,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -16965,28 +16961,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -16996,9 +16992,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -17714,6 +17710,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -17724,12 +17726,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1400-000000000000}"/>
@@ -17770,22 +17766,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>422</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -17823,28 +17819,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -17854,9 +17850,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -18568,6 +18564,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -18578,12 +18580,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1500-000000000000}"/>
@@ -18624,22 +18620,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -18677,28 +18673,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -18708,9 +18704,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -19416,6 +19412,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -19426,12 +19428,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1600-000000000000}"/>
@@ -19472,22 +19468,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -19525,28 +19521,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -19556,9 +19552,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -20266,6 +20262,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -20276,12 +20278,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1700-000000000000}"/>
@@ -20322,22 +20318,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -20375,28 +20371,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -20406,9 +20402,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="283.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -21098,6 +21094,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -21108,12 +21110,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1800-000000000000}"/>
@@ -21154,22 +21150,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -21207,28 +21203,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -21238,9 +21234,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="297.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -21932,6 +21928,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -21942,12 +21944,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1900-000000000000}"/>
@@ -21988,22 +21984,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -22041,28 +22037,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -22072,9 +22068,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="297.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -22774,6 +22770,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -22784,12 +22786,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1A00-000000000000}"/>
@@ -22830,22 +22826,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>489</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -22883,28 +22879,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -22914,9 +22910,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -23622,6 +23618,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -23632,12 +23634,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1B00-000000000000}"/>
@@ -23678,22 +23674,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -23731,28 +23727,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -23762,9 +23758,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -24470,6 +24466,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -24480,12 +24482,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1C00-000000000000}"/>
@@ -24526,22 +24522,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -24579,28 +24575,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -24610,9 +24606,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -25330,6 +25326,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -25340,12 +25342,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
@@ -25386,22 +25382,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>515</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -25439,28 +25435,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -25470,9 +25466,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -26176,6 +26172,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -26186,12 +26188,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1D00-000000000000}"/>
@@ -26232,22 +26228,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>527</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -26285,28 +26281,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -26316,9 +26312,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -27030,6 +27026,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -27040,12 +27042,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1E00-000000000000}"/>
@@ -27086,22 +27082,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -27139,28 +27135,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -27170,9 +27166,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -27878,6 +27874,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -27888,12 +27890,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1F00-000000000000}"/>
@@ -27934,22 +27930,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -27987,28 +27983,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -28018,9 +28014,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -28730,6 +28726,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -28740,12 +28742,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2000-000000000000}"/>
@@ -28786,22 +28782,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>573</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -28839,28 +28835,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -28870,9 +28866,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -29574,6 +29570,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -29584,12 +29586,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2100-000000000000}"/>
@@ -29630,22 +29626,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -29683,28 +29679,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -29714,9 +29710,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -30422,6 +30418,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -30432,12 +30434,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2200-000000000000}"/>
@@ -30478,22 +30474,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>600</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -30531,28 +30527,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -30562,9 +30558,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -31264,6 +31260,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -31274,12 +31276,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2300-000000000000}"/>
@@ -31320,22 +31316,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>615</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -31373,28 +31369,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -31404,9 +31400,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -32112,6 +32108,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -32122,12 +32124,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2400-000000000000}"/>
@@ -32168,22 +32164,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>628</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -32221,28 +32217,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -32252,9 +32248,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -32964,6 +32960,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -32974,12 +32976,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2500-000000000000}"/>
@@ -33020,22 +33016,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>640</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -33073,28 +33069,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -33104,9 +33100,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -33814,6 +33810,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -33824,12 +33826,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2600-000000000000}"/>
@@ -33870,22 +33866,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -33923,28 +33919,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -33954,9 +33950,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -34668,6 +34664,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -34678,12 +34680,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
@@ -34724,22 +34720,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>658</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -34777,28 +34773,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -34808,9 +34804,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -35508,6 +35504,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -35518,12 +35520,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2700-000000000000}"/>
@@ -35564,22 +35560,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>673</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -35617,28 +35613,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -35648,9 +35644,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -36348,6 +36344,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -36358,12 +36360,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2800-000000000000}"/>
@@ -36404,22 +36400,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>688</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -36457,28 +36453,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -36488,9 +36484,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -37192,6 +37188,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -37202,12 +37204,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2900-000000000000}"/>
@@ -37248,22 +37244,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>697</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -37301,28 +37297,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -37332,9 +37328,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -38036,6 +38032,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -38046,12 +38048,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2A00-000000000000}"/>
@@ -38092,22 +38088,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>710</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -38145,28 +38141,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -38176,9 +38172,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -38985,6 +38981,11 @@
     <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -38996,11 +38997,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2B00-000000000000}"/>
@@ -39041,22 +39037,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>725</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -39094,28 +39090,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -39125,9 +39121,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -39936,6 +39932,12 @@
     <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A2:A3"/>
@@ -39946,12 +39948,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2C00-000000000000}"/>
@@ -39992,22 +39988,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>736</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -40045,28 +40041,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -40076,9 +40072,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -40873,6 +40869,12 @@
     <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A2:A3"/>
@@ -40883,12 +40885,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2D00-000000000000}"/>
@@ -40929,22 +40925,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>748</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -40982,28 +40978,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -41013,9 +41009,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -41810,6 +41806,12 @@
     <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A2:A3"/>
@@ -41820,12 +41822,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2E00-000000000000}"/>
@@ -41866,22 +41862,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>758</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -41919,28 +41915,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -41950,9 +41946,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -42753,6 +42749,12 @@
     <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A2:A3"/>
@@ -42763,12 +42765,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2F00-000000000000}"/>
@@ -42809,22 +42805,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>774</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -42862,28 +42858,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -42893,9 +42889,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -43700,6 +43696,12 @@
     <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A2:A3"/>
@@ -43710,12 +43712,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-3000-000000000000}"/>
@@ -43756,22 +43752,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -43809,28 +43805,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -43840,9 +43836,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -44552,6 +44548,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -44562,12 +44564,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
@@ -44582,8 +44578,8 @@
   <sheetPr codeName="Лист50"/>
   <dimension ref="A1:TR41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="I17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -44609,22 +44605,22 @@
   <sheetData>
     <row r="1" spans="1:15" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="49" t="s">
         <v>793</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="41" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="41" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="42"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -44662,28 +44658,28 @@
       <c r="J3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="48" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="12" t="s">
         <v>16</v>
       </c>
@@ -44693,9 +44689,9 @@
       <c r="L4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
     </row>
     <row r="5" spans="1:15" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
@@ -45287,7 +45283,9 @@
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="21"/>
-      <c r="N21" s="12"/>
+      <c r="N21" s="12">
+        <v>12.7</v>
+      </c>
       <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:538" x14ac:dyDescent="0.25">
@@ -45354,7 +45352,7 @@
       </c>
       <c r="N25" s="13">
         <f>SUM(N5:N21)</f>
-        <v>0</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="26" spans="1:538" x14ac:dyDescent="0.25">
@@ -45368,7 +45366,7 @@
       </c>
       <c r="N26" s="13">
         <f>N25+N27</f>
-        <v>1085</v>
+        <v>1097.7</v>
       </c>
     </row>
     <row r="27" spans="1:538" x14ac:dyDescent="0.25">
@@ -45450,22 +45448,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -45503,28 +45501,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -45534,9 +45532,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -46244,6 +46242,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -46254,12 +46258,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
@@ -46300,22 +46298,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -46353,28 +46351,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -46384,9 +46382,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -47096,6 +47094,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -47106,12 +47110,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
@@ -47152,22 +47150,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -47205,28 +47203,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -47236,9 +47234,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -47952,6 +47950,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -47962,12 +47966,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
@@ -48008,22 +48006,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -48061,28 +48059,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -48092,9 +48090,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -48812,6 +48810,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -48822,12 +48826,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0800-000000000000}"/>

--- a/СКТП и КУ сводка по ГНКТ.xlsx
+++ b/СКТП и КУ сводка по ГНКТ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\SANDBOX\SAURON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sauron\Desktop\Romanoff\SANDBOX\SAURON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60668C7-93DF-4A7B-ABB0-2F64E2B70F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050C6B69-0423-4E2C-A2C3-E00F3F419C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="854" firstSheet="44" activeTab="49" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="854" firstSheet="44" activeTab="48" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01.12.2023 06.00" sheetId="1" r:id="rId1"/>
@@ -60,19 +60,18 @@
     <sheet name="23.12.2023 06.00" sheetId="45" r:id="rId45"/>
     <sheet name="23.12.2023 18.00" sheetId="46" r:id="rId46"/>
     <sheet name="24.12.2023 06.00" sheetId="47" r:id="rId47"/>
-    <sheet name="24.12.2023 18.00" sheetId="48" r:id="rId48"/>
-    <sheet name="25.12.2023 06.00" sheetId="49" r:id="rId49"/>
-    <sheet name="25.12.2023 18.00" sheetId="50" r:id="rId50"/>
+    <sheet name="25.12.2023 18.00" sheetId="50" r:id="rId48"/>
+    <sheet name="24.12.2023 18.00" sheetId="48" r:id="rId49"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId51"/>
+    <externalReference r:id="rId50"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7871" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7717" uniqueCount="789">
   <si>
     <t>Ежесуточная сводка инженера СКТП и КУ по видеоконтролю флотов ГНКТ ООО "Пакер Сервис" c 18:00 30.11.2023 по 06:00 01.12.2023</t>
   </si>
@@ -3067,38 +3066,10 @@
     <t>06:00 - 18:00  Монтаж оборудования ГНКТ 100%,Прокачка ГТ .завоз тех жидкости V-10м3 Пусковая комиссия ,опрессовка ПВОзавоз тех жидкости V-10м3 Открытие ЦЗ в 11:30 17 оборотов, Спуск КНК-1 с переодической прокачкой до гл.85м, вес 0,5/1,5тн Спуск КНК-1 с переодической прокачкой до гл.245м, Разгрузка 0.5 тн от собственного веса вес ГТ 0,7/2,5тн Подьём КНК-1 до гл 215м , Старт НКА Qжидк-140л/мин , вес гт 0,5/2,6тн Спуск НКН-1 с постоянной горячей промывкой t-80с, вес 1,8/4,4тн до гл.700м на выходе тех.жидкость , плёнка нефти .</t>
   </si>
   <si>
-    <t>Ежесуточная сводка инженера СКТП и КУ по видеоконтролю флотов ГНКТ ООО "Пакер Сервис" c 18:00 24.12.2023 по 06:00 25.12.2023</t>
-  </si>
-  <si>
-    <t>20:00-22:00 Попытки пройти интервал посадки гл.2988,5м. Разгрузка на 0,5 т от веса на спуск. Qж=120л/мин. Qа=15м3/мин. Рр=220атм. Ру=4атм. Вес на спуск 4,5т. Вес на подъём 10,5т.
-22:00-24:00 Стоп ПАУ. Вызов притока стоп. Подъём КНК-1 до гл.2500 м. Qж=60л/мин. Рр=40атм, Ру=3атм. Вес на спуск 3,5т. Вес на подъём 8,5т.
- 00:00-04:00 Подъём КНК-1 до гл.600 м.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> БПО г.Губкинский Подготовительные работы к проведению работ на ООО "РН-Юганскнефтегаз"</t>
-  </si>
-  <si>
     <t xml:space="preserve">СВК+
 </t>
   </si>
   <si>
-    <t xml:space="preserve">20:00-20:30 Спуск КНК-1 с промывкой до гл.3620м 
-20:30-21:30 Подъем КНК-1 с промывкой до гл.3260м  
-21:30-22:30 Промывка на гл.3560м 
-22:30-01:00 Спуск КНК-1 с промывкой до гл.3720м  ж. 
-01:00-04:00   Подъем КНК-1 с промывкой до гл.2810м </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Подготовительные работы к проведению работ на ООО "РН-Юганскнефтегаз".</t>
-  </si>
-  <si>
-    <t>18:00-18:30 Спуск КНК1 с циркуляцией.в  интервале гл. 1339м-1405м.
-18:30-22:00 Подъем КНК1 с циркуляцией по ГНКТ.в  интервале гл. 1405м-400м.  Переориентация ГТ.
-22:00 Завоз тех жидкости V 10м3. Спуск КНК1 с циркуляцией по ГНКТ в  интервале гл. 400м.
-'22:00-03:45 Спуск КНК1 с циркуляцией по ГНКТ в  интервале гл. 1012м-1165м. Потеря циркуляции.
-03:45-6:00 Подъем КНК-1 в интервале гл. 1165м-960м.</t>
-  </si>
-  <si>
     <t>25.12.2023 05:00</t>
   </si>
   <si>
@@ -3106,66 +3077,14 @@
   </si>
   <si>
     <t>Переезд, монтаж</t>
-  </si>
-  <si>
-    <t>18:00-22:00 Переезд флота ГНКТ-7 со скв.666 КП №178 Тарасовского м/р на скв.472    КП   №204  Ю-Таркосалинского м/р - 90%.
-22:00-01:00  Переезд флота ГНКТ-7 со скв.666 КП №178 Тарасовского м/р на скв.472    КП   №204  Ю-Таркосалинского м/р - 100%.
-01:00-02:00 Расстановка и подключение жил.городка. Расстановка СПТ.
-02:00-03:00 Расстановка СПТ.
-03:00-05:00 Разгрузка оборудования.
-05:00-06:00 Монтаж оборудования ГНКТ 10%.</t>
   </si>
   <si>
     <t>СВК+.
  2 из 4. Фотоподтверждение +</t>
   </si>
   <si>
-    <t>20:00-01:00 Спуск КНК ( перо+шаблон65мм+ОК) до гл.4171м.(Разгрузка 0,5т).
-01:00-01:30 Трехкратная попытка с приподьемами пройти интервал разрузки гл.4171м (-)
-01:30 Запуск УНБ
-01:30-03:00 Спуск КНК с разгрузками 0.5т. гл.4283м.(требуемый забой) 03:00 Стоп УНБ
-03:00-04:00 Подьем КНК гл.4170м.Спуск КНК л.4283м.(Забой).Проработка интервала разрузки.(+)
-04:00 Подьем КНК до устья.гл.4283м
-Подъем КНК-1 ( перо+шаблон65мм+ОК) до гл.3000м.</t>
-  </si>
-  <si>
-    <t>18:00-19:00 Подъём КНК-1 с промывкой азотированной тех.ж-тью по ГТ. Н-2066м(50м выше стингера)
-19:00-21:00 Промывка азотированной тех.ж-тью по ГТ. Н-2066м(50м выше стингера); 
-21:00-22:00 Стоп ПАУ+НКА. Завоз азота 
-18:00-19:00 Подъём КНК-1 с промывкой азотированной тех.ж-тью по ГТ. Н-2066м(50м выше стингера)
-19:00-21:00 Промывка азотированной тех.ж-тью по ГТ. Н-2066м(50м выше стингера); 
-21:00-22:00 Стоп ПАУ+НКА. Завоз азота (продолжаем).
-22:00-00:00 Завоз азота, перетарка, захолаживание.
-00:00-02:00 Запуск ПАУ+НКА. Н-2066м;  
-02:00-06:00 Спуск КНК-1 с промывкой азотированной тех.ж-тью по ГТ. Н-2482м</t>
-  </si>
-  <si>
-    <t>20:00-22:00 Спуск с циркуляцией КНК-2 Н=2620 м вес 
-22:00-24:00 Смена расходов, Работа КНК-2 в интервале Н=2620м 
-00:00-00:30 Попытки пройти интервал посадки КНК-2 в интервале Н=2620м 
-00:30-01:00 Подъем КНК-2 на Н=2540м
-01:00-02:00 Запуск комплекса НКА+ПАУ КНК-2 на Н=2540м
-02:00-02:30 Спуск КНК-2 Н= 2620м
-02:30-04:00 Попытки пройти интервал посадки КНК-2 Н= 2620м</t>
-  </si>
-  <si>
     <t>СВК+
 4 из 4 фотоподтверждение+</t>
-  </si>
-  <si>
-    <t>20:00-21:00 Флот в режиме готовности (пробный запуск ЭЦН-).
-21:00-22:30 Подъем КНК-1 до 0 м.
-22:30-24:00 Флот в режиме готовности (пробный запуск ЭЦН-).
-24:00-02:00 Спуск НКН-1 до гл 787 м (по согласовани с заказчиком). Вес 2,6 тн
-02:00-03:00 Закачка тех жидкости на поглащение Q-50л/мин .  Резкий рост устьевого давления до 50атм.,  в течении 10 мин нет падения. Закачка тех жидкости с дросселированием обратной линии на разных режимах не привышая Руст 65атм. Поглащение "-"
-03:00-05:30 Флот в режиме готовности ( пробный запуск ЭЦН )
-05:30-06:00 Подъем КНК-1 до 520 м</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Работы следственного комитета РФ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Укомплектование Флота персоналом.</t>
   </si>
   <si>
     <t>Ежесуточная сводка инженера СКТП и КУ по видеоконтролю флотов ГНКТ ООО "Пакер Сервис" c 06:00 25.12.2023 по 18:00 25.12.2023</t>
@@ -3534,23 +3453,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3574,13 +3493,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>777875</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_1" textlink="">
@@ -3654,13 +3573,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>841375</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_2" textlink="">
@@ -3734,13 +3653,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1301750</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_3" textlink="">
@@ -3814,13 +3733,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1365250</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_4" textlink="">
@@ -3894,13 +3813,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_5" textlink="">
@@ -3974,13 +3893,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>498475</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1149350</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_6" textlink="">
@@ -4054,13 +3973,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1212850</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1863725</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_7" textlink="">
@@ -4134,13 +4053,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1927225</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_8" textlink="">
@@ -4214,13 +4133,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1354139</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_9" textlink="">
@@ -4294,13 +4213,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1417639</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>518318</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_10" textlink="">
@@ -4374,13 +4293,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>581818</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1208879</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_11" textlink="">
@@ -4454,13 +4373,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1272379</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1923254</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_14" textlink="">
@@ -4534,13 +4453,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1986754</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2637629</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_16" textlink="">
@@ -4614,13 +4533,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2701129</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>3352004</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_17" textlink="">
@@ -4694,13 +4613,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>3415504</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>4066379</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_18" textlink="">
@@ -4774,13 +4693,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>4129879</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>351629</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_19" textlink="">
@@ -4854,13 +4773,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>415129</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1066004</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_22" textlink="">
@@ -4934,13 +4853,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1129504</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>399254</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_31" textlink="">
@@ -5014,13 +4933,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>462754</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1113629</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Crew_32" textlink="">
@@ -5094,13 +5013,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1177129</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>118268</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_UnhideAllRows" textlink="">
@@ -5169,13 +5088,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>181768</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1135857</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_CompactView" textlink="">
@@ -5244,13 +5163,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1199357</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>469107</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_NormalView" textlink="">
@@ -5319,13 +5238,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>532607</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152538</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_UnhideAllRows" textlink="">
@@ -5394,13 +5313,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>216037</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>881060</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="[1]!SCTP_CT_Filters_Off" textlink="">
@@ -5808,22 +5727,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -5861,28 +5780,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -5892,9 +5811,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -6616,12 +6535,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -6632,6 +6545,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
@@ -6672,22 +6591,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -6725,28 +6644,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -6756,9 +6675,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -7476,12 +7395,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -7492,6 +7405,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0900-000000000000}"/>
@@ -7532,22 +7451,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -7585,28 +7504,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -7616,9 +7535,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -8334,12 +8253,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -8350,6 +8263,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0A00-000000000000}"/>
@@ -8390,22 +8309,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -8443,28 +8362,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -8474,9 +8393,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -9186,12 +9105,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -9202,6 +9115,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0B00-000000000000}"/>
@@ -9242,22 +9161,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -9295,28 +9214,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -9326,9 +9245,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -10040,12 +9959,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -10056,6 +9969,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0C00-000000000000}"/>
@@ -10096,22 +10015,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -10149,28 +10068,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -10180,9 +10099,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -10890,12 +10809,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -10906,6 +10819,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0D00-000000000000}"/>
@@ -10946,22 +10865,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -10999,28 +10918,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -11030,9 +10949,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -11738,12 +11657,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -11754,6 +11667,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0E00-000000000000}"/>
@@ -11794,22 +11713,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -11847,28 +11766,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -11878,9 +11797,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -12590,12 +12509,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -12606,6 +12519,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0F00-000000000000}"/>
@@ -12646,22 +12565,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -12699,28 +12618,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -12730,9 +12649,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -13438,12 +13357,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -13454,6 +13367,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1000-000000000000}"/>
@@ -13494,22 +13413,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -13547,28 +13466,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -13578,9 +13497,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -14286,12 +14205,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -14302,6 +14215,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1100-000000000000}"/>
@@ -14342,22 +14261,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -14395,28 +14314,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -14426,9 +14345,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -15138,12 +15057,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -15154,6 +15067,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1200-000000000000}"/>
@@ -15194,22 +15113,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -15247,28 +15166,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -15278,9 +15197,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -15998,12 +15917,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -16014,6 +15927,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
@@ -16054,22 +15973,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -16107,28 +16026,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -16138,9 +16057,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -16852,12 +16771,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -16868,6 +16781,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1300-000000000000}"/>
@@ -16908,22 +16827,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -16961,28 +16880,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -16992,9 +16911,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -17710,12 +17629,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -17726,6 +17639,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1400-000000000000}"/>
@@ -17766,22 +17685,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -17819,28 +17738,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -17850,9 +17769,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -18564,12 +18483,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -18580,6 +18493,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1500-000000000000}"/>
@@ -18620,22 +18539,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -18673,28 +18592,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -18704,9 +18623,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -19412,12 +19331,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -19428,6 +19341,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1600-000000000000}"/>
@@ -19468,22 +19387,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -19521,28 +19440,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -19552,9 +19471,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -20262,12 +20181,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -20278,6 +20191,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1700-000000000000}"/>
@@ -20318,22 +20237,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -20371,28 +20290,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -20402,9 +20321,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="283.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -21094,12 +21013,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -21110,6 +21023,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1800-000000000000}"/>
@@ -21150,22 +21069,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -21203,28 +21122,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -21234,9 +21153,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="297.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -21928,12 +21847,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -21944,6 +21857,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1900-000000000000}"/>
@@ -21984,22 +21903,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -22037,28 +21956,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -22068,9 +21987,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="297.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -22770,12 +22689,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -22786,6 +22699,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1A00-000000000000}"/>
@@ -22826,22 +22745,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -22879,28 +22798,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -22910,9 +22829,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -23618,12 +23537,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -23634,6 +23547,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1B00-000000000000}"/>
@@ -23674,22 +23593,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -23727,28 +23646,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -23758,9 +23677,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -24466,12 +24385,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -24482,6 +24395,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1C00-000000000000}"/>
@@ -24522,22 +24441,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -24575,28 +24494,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -24606,9 +24525,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -25326,12 +25245,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -25342,6 +25255,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
@@ -25382,22 +25301,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -25435,28 +25354,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -25466,9 +25385,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -26172,12 +26091,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -26188,6 +26101,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1D00-000000000000}"/>
@@ -26228,22 +26147,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>527</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -26281,28 +26200,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -26312,9 +26231,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -27026,12 +26945,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -27042,6 +26955,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1E00-000000000000}"/>
@@ -27082,22 +27001,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -27135,28 +27054,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -27166,9 +27085,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -27874,12 +27793,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -27890,6 +27803,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-1F00-000000000000}"/>
@@ -27930,22 +27849,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -27983,28 +27902,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -28014,9 +27933,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -28726,12 +28645,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -28742,6 +28655,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2000-000000000000}"/>
@@ -28782,22 +28701,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>573</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -28835,28 +28754,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -28866,9 +28785,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -29570,12 +29489,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -29586,6 +29499,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2100-000000000000}"/>
@@ -29626,22 +29545,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -29679,28 +29598,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -29710,9 +29629,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -30418,12 +30337,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -30434,6 +30347,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2200-000000000000}"/>
@@ -30474,22 +30393,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>599</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>600</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -30527,28 +30446,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -30558,9 +30477,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -31260,12 +31179,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -31276,6 +31189,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2300-000000000000}"/>
@@ -31316,22 +31235,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -31369,28 +31288,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -31400,9 +31319,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -32108,12 +32027,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -32124,6 +32037,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2400-000000000000}"/>
@@ -32164,22 +32083,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>628</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -32217,28 +32136,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -32248,9 +32167,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -32960,12 +32879,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -32976,6 +32889,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2500-000000000000}"/>
@@ -33016,22 +32935,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>640</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -33069,28 +32988,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -33100,9 +33019,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -33810,12 +33729,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -33826,6 +33739,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2600-000000000000}"/>
@@ -33866,22 +33785,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -33919,28 +33838,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -33950,9 +33869,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -34664,12 +34583,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -34680,6 +34593,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
@@ -34720,22 +34639,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>658</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -34773,28 +34692,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -34804,9 +34723,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -35504,12 +35423,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -35520,6 +35433,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2700-000000000000}"/>
@@ -35560,22 +35479,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>673</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -35613,28 +35532,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -35644,9 +35563,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -36344,12 +36263,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -36360,6 +36273,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2800-000000000000}"/>
@@ -36400,22 +36319,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>688</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -36453,28 +36372,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -36484,9 +36403,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -37188,12 +37107,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -37204,6 +37117,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2900-000000000000}"/>
@@ -37244,22 +37163,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>697</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -37297,28 +37216,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -37328,9 +37247,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -38032,12 +37951,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -38048,6 +37961,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2A00-000000000000}"/>
@@ -38088,22 +38007,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>710</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -38141,28 +38060,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -38172,9 +38091,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -38981,11 +38900,6 @@
     <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -38997,6 +38911,11 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2B00-000000000000}"/>
@@ -39037,22 +38956,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>725</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -39090,28 +39009,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -39121,9 +39040,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -39932,12 +39851,6 @@
     <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A2:A3"/>
@@ -39948,6 +39861,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2C00-000000000000}"/>
@@ -39988,22 +39907,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>736</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -40041,28 +39960,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -40072,9 +39991,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -40869,12 +40788,6 @@
     <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A2:A3"/>
@@ -40885,6 +40798,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2D00-000000000000}"/>
@@ -40925,22 +40844,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>748</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -40978,28 +40897,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -41009,9 +40928,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -41806,12 +41725,6 @@
     <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A2:A3"/>
@@ -41822,6 +41735,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2E00-000000000000}"/>
@@ -41832,12 +41751,860 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+  <sheetPr codeName="Лист50"/>
+  <dimension ref="A1:TR42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="100.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="50.28515625" style="1" customWidth="1"/>
+    <col min="16" max="207" width="20.7109375" style="1" customWidth="1"/>
+    <col min="208" max="16384" width="20.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>780</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="42"/>
+      <c r="I3" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+    </row>
+    <row r="6" spans="1:15" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="15">
+        <v>45278.666666666657</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="15">
+        <v>45279.958333333343</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>774</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="15">
+        <v>45271.166666666657</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>677</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>776</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>777</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" ht="330.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="9" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:538" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="15">
+        <v>45280</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:538" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:538" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="15">
+        <v>45283.958333333343</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>788</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="28"/>
+    </row>
+    <row r="20" spans="1:538" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:538" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="18"/>
+      <c r="QH21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="TR21" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:538" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="12">
+        <v>12.7</v>
+      </c>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:538" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="19"/>
+    </row>
+    <row r="24" spans="1:538" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="19"/>
+    </row>
+    <row r="25" spans="1:538" x14ac:dyDescent="0.25">
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:538" x14ac:dyDescent="0.25">
+      <c r="K26" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="13">
+        <f>SUM(M6:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="13">
+        <f>SUM(N6:N22)</f>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:538" x14ac:dyDescent="0.25">
+      <c r="K27" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L27" s="14"/>
+      <c r="M27" s="13">
+        <f>M26+M28</f>
+        <v>457.5</v>
+      </c>
+      <c r="N27" s="13">
+        <f>N26+N28</f>
+        <v>1097.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:538" x14ac:dyDescent="0.25">
+      <c r="M28" s="7">
+        <v>457.5</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="32" spans="1:538" x14ac:dyDescent="0.25">
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K36" s="8"/>
+    </row>
+    <row r="42" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G6:G24 G26:G30 I3" xr:uid="{00000000-0002-0000-3100-000000000000}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <sheetPr codeName="Лист48"/>
-  <dimension ref="A1:TR155"/>
+  <dimension ref="A1:TR40"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -41862,22 +42629,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>758</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -41915,28 +42682,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -41946,9 +42713,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -42640,121 +43407,8 @@
     <row r="40" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H40" s="3"/>
     </row>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A2:A3"/>
@@ -42765,956 +43419,15 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-2F00-000000000000}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
-  <sheetPr codeName="Лист49"/>
-  <dimension ref="A1:TR155"/>
-  <sheetViews>
-    <sheetView topLeftCell="G18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="100.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="50.28515625" style="1" customWidth="1"/>
-    <col min="16" max="207" width="20.7109375" style="1" customWidth="1"/>
-    <col min="208" max="16384" width="20.7109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>774</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-    </row>
-    <row r="4" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="15">
-        <v>45278.666666666657</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>776</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="15">
-        <v>45279.958333333343</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>777</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>761</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="15">
-        <v>45271.166666666657</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" s="12">
-        <v>472</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>764</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>781</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>782</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>783</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" ht="330.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>767</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>742</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>785</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:15" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>667</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>668</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>787</v>
-      </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="9" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="15">
-        <v>45280</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="9"/>
-    </row>
-    <row r="16" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:538" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="15">
-        <v>45283.958333333343</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>772</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>789</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="28"/>
-    </row>
-    <row r="18" spans="1:538" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="1:538" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="18"/>
-      <c r="QH19" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="TR19" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:538" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="9"/>
-    </row>
-    <row r="21" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>792</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="19"/>
-    </row>
-    <row r="22" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="19"/>
-    </row>
-    <row r="23" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="K24" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13">
-        <f>SUM(M4:M20)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="13">
-        <f>SUM(N4:N20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="K25" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="13">
-        <f>M24+M26</f>
-        <v>457.5</v>
-      </c>
-      <c r="N25" s="13">
-        <f>N24+N26</f>
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="26" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="M26" s="7">
-        <v>457.5</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="30" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="L31" s="2"/>
-    </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="8"/>
-    </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H40" s="3"/>
-    </row>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-3000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -43752,22 +43465,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -43805,28 +43518,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -43836,9 +43549,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -44548,12 +44261,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -44564,856 +44271,18 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
-  <sheetPr codeName="Лист50"/>
-  <dimension ref="A1:TR41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="100.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="50.28515625" style="1" customWidth="1"/>
-    <col min="16" max="207" width="20.7109375" style="1" customWidth="1"/>
-    <col min="208" max="16384" width="20.7109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>793</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-    </row>
-    <row r="5" spans="1:15" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="15">
-        <v>45278.666666666657</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>690</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="15">
-        <v>45279.958333333343</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>777</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>761</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="15">
-        <v>45271.166666666657</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>763</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>764</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>781</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>782</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>783</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>797</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="1:15" ht="330.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>767</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>742</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>785</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>798</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="1:15" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>667</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>668</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>799</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="9" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="15">
-        <v>45280</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:538" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="1:538" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="15">
-        <v>45283.958333333343</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>772</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>789</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>801</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="28"/>
-    </row>
-    <row r="19" spans="1:538" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="1:538" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="18"/>
-      <c r="QH20" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="TR20" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:538" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="12">
-        <v>12.7</v>
-      </c>
-      <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="19"/>
-    </row>
-    <row r="23" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="19"/>
-    </row>
-    <row r="24" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="K25" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="13">
-        <f>SUM(M5:M21)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="13">
-        <f>SUM(N5:N21)</f>
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="K26" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="13">
-        <f>M25+M27</f>
-        <v>457.5</v>
-      </c>
-      <c r="N26" s="13">
-        <f>N25+N27</f>
-        <v>1097.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="M27" s="7">
-        <v>457.5</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="31" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:538" x14ac:dyDescent="0.25">
-      <c r="L32" s="2"/>
-    </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="8"/>
-    </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H41" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="C3:C4"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G5:G23 G25:G29 I2" xr:uid="{00000000-0002-0000-3100-000000000000}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45448,22 +44317,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -45501,28 +44370,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -45532,9 +44401,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -46242,12 +45111,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -46258,6 +45121,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
@@ -46298,22 +45167,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -46351,28 +45220,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -46382,9 +45251,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -47094,12 +45963,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -47110,6 +45973,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
@@ -47150,22 +46019,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -47203,28 +46072,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -47234,9 +46103,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -47950,12 +46819,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -47966,6 +46829,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
@@ -48006,22 +46875,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="46"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -48059,28 +46928,28 @@
       <c r="J2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
@@ -48090,9 +46959,9 @@
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -48810,12 +47679,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
@@ -48826,6 +47689,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4:G22 G24:G28 I1" xr:uid="{00000000-0002-0000-0800-000000000000}"/>
